--- a/2.0 - Progress, Achievements, and Remaining Challenges in Risk Assessment/assets/tables/UR - 2.0 - table_1.xlsx
+++ b/2.0 - Progress, Achievements, and Remaining Challenges in Risk Assessment/assets/tables/UR - 2.0 - table_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38380" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -39,9 +39,6 @@
     <t>http://www.globalcmt.org</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.isc.ac.uk/iscgem/index.php </t>
-  </si>
-  <si>
     <t>Earthquake date, location, and intensity</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
     <t>http://earthquake.usgs.gov/hazards/apps/vs30/</t>
   </si>
   <si>
+    <t>Topography—digital elevation data (~90m resolution)</t>
+  </si>
+  <si>
     <t>Define elevation and slope for floods, tsunamis, landslides, etc.</t>
   </si>
   <si>
@@ -141,6 +141,9 @@
     <t>http://floodobservatory.colorado.edu/Archives/index.html</t>
   </si>
   <si>
+    <t>Fire events 1997–2011</t>
+  </si>
+  <si>
     <t>Wildfire hazard</t>
   </si>
   <si>
@@ -165,26 +168,52 @@
     <t>http://www.ncdc.noaa.gov/hursat/</t>
   </si>
   <si>
-    <t>Topography-digital elevation data (~90m resolution)</t>
-  </si>
-  <si>
     <t>Tropical cyclone best-track dataa</t>
-  </si>
-  <si>
-    <t>Fire events 1997-2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Verb Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verb Semibold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,21 +233,333 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="16">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Verb Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Verb Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Verb Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <name val="Verb Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Verb Semibold"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7EAED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4A818F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7EAED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4A818F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FF4A818F"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF4A818F"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF4A818F"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF4A818F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7EAED"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4A818F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2F2F2F"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF989A9D"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF989A9D"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF989A9D"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF989A9D"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="GAR Table" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+    </tableStyle>
+    <tableStyle name="GAR Table Final" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="GAR Table Final 2" pivot="0" count="4">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C17"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Data" dataDxfId="2"/>
+    <tableColumn id="2" name="Use" dataDxfId="1"/>
+    <tableColumn id="3" name="Source" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="GAR Table Final 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,214 +884,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="34" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="32">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="34" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="48">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="34" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="32">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="34" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="32">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="34" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="48">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="48">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="48">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="48">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="80">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="48">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="48">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="32">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
